--- a/data/trans_orig/IP3101-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP3101-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47A10C24-C87D-4494-AEBC-B479B1353046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25C4ACCE-CD10-4742-9B33-20470C2BB691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{460B4374-B9EB-4A5B-84B3-702DE9C057B7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1047F52D-C3E9-42F6-A2E0-101FDCD6AD8C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="741">
   <si>
     <t>Menores según la frecuencia de tomar fruta en 2007 (Tasa respuesta: 93,35%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -79,7 +79,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>21,86%</t>
+    <t>19,99%</t>
   </si>
   <si>
     <t>0%</t>
@@ -91,7 +91,7 @@
     <t>1,87%</t>
   </si>
   <si>
-    <t>9,45%</t>
+    <t>9,23%</t>
   </si>
   <si>
     <t>Una/dos veces a la semana</t>
@@ -100,13 +100,13 @@
     <t>6,85%</t>
   </si>
   <si>
-    <t>22,96%</t>
+    <t>21,47%</t>
   </si>
   <si>
     <t>3,48%</t>
   </si>
   <si>
-    <t>10,4%</t>
+    <t>10,45%</t>
   </si>
   <si>
     <t>3 o 4 veces a la semana</t>
@@ -115,2164 +115,2152 @@
     <t>15,17%</t>
   </si>
   <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>5 o 6 veces a la semana</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>Todos los dias</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia de tomar fruta en 2012 (Tasa respuesta: 92,0%)</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia de tomar fruta en 2016 (Tasa respuesta: 92,85%)</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
     <t>3,92%</t>
   </si>
   <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
   </si>
   <si>
     <t>11,33%</t>
   </si>
   <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>5 o 6 veces a la semana</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>Todos los dias</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
   </si>
   <si>
     <t>2,53%</t>
   </si>
   <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
   </si>
   <si>
     <t>53,95%</t>
   </si>
   <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia de tomar fruta en 2012 (Tasa respuesta: 92,0%)</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia de tomar fruta en 2015 (Tasa respuesta: 92,85%)</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
   </si>
   <si>
     <t>54,1%</t>
   </si>
   <si>
-    <t>57,35%</t>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
   </si>
   <si>
     <t>54,02%</t>
   </si>
   <si>
-    <t>56,22%</t>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
   </si>
 </sst>
 </file>
@@ -2684,7 +2672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E38BB3-AB8E-43CC-9DF6-C6882F94DA95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D96370-E0DF-455B-A54D-C8DBC8142302}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3272,10 +3260,10 @@
         <v>82</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -3284,13 +3272,13 @@
         <v>25423</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M13" s="7">
         <v>87</v>
@@ -3299,13 +3287,13 @@
         <v>58913</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3320,13 +3308,13 @@
         <v>40830</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H14" s="7">
         <v>67</v>
@@ -3335,13 +3323,13 @@
         <v>44160</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M14" s="7">
         <v>131</v>
@@ -3350,13 +3338,13 @@
         <v>84990</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3412,7 +3400,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3424,13 +3412,13 @@
         <v>13922</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -3439,13 +3427,13 @@
         <v>14156</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M16" s="7">
         <v>43</v>
@@ -3454,13 +3442,13 @@
         <v>28078</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3475,13 +3463,13 @@
         <v>22454</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -3490,13 +3478,13 @@
         <v>15529</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M17" s="7">
         <v>58</v>
@@ -3505,13 +3493,13 @@
         <v>37982</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,13 +3514,13 @@
         <v>43125</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H18" s="7">
         <v>51</v>
@@ -3541,13 +3529,13 @@
         <v>31858</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M18" s="7">
         <v>117</v>
@@ -3556,13 +3544,13 @@
         <v>74984</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3577,13 +3565,13 @@
         <v>44341</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H19" s="7">
         <v>65</v>
@@ -3592,13 +3580,13 @@
         <v>39753</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M19" s="7">
         <v>133</v>
@@ -3607,13 +3595,13 @@
         <v>84094</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3628,13 +3616,13 @@
         <v>78336</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H20" s="7">
         <v>128</v>
@@ -3643,13 +3631,13 @@
         <v>80098</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M20" s="7">
         <v>246</v>
@@ -3658,13 +3646,13 @@
         <v>158433</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3720,7 +3708,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3732,13 +3720,13 @@
         <v>8962</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -3747,13 +3735,13 @@
         <v>6293</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M22" s="7">
         <v>24</v>
@@ -3762,13 +3750,13 @@
         <v>15255</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3783,13 +3771,13 @@
         <v>10971</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H23" s="7">
         <v>15</v>
@@ -3798,13 +3786,13 @@
         <v>9013</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M23" s="7">
         <v>32</v>
@@ -3813,13 +3801,13 @@
         <v>19984</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3834,13 +3822,13 @@
         <v>17603</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H24" s="7">
         <v>26</v>
@@ -3849,13 +3837,13 @@
         <v>16017</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M24" s="7">
         <v>53</v>
@@ -3864,13 +3852,13 @@
         <v>33621</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,13 +3873,13 @@
         <v>23564</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H25" s="7">
         <v>41</v>
@@ -3900,13 +3888,13 @@
         <v>24436</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M25" s="7">
         <v>76</v>
@@ -3915,13 +3903,13 @@
         <v>48000</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,10 +3927,10 @@
         <v>180</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>119</v>
@@ -3951,13 +3939,13 @@
         <v>71130</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>239</v>
@@ -3966,13 +3954,13 @@
         <v>147646</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,7 +4016,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4040,7 +4028,7 @@
         <v>8684</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>102</v>
+        <v>189</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>190</v>
@@ -4070,7 +4058,7 @@
         <v>22648</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>195</v>
@@ -4109,10 +4097,10 @@
         <v>200</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>68</v>
+        <v>201</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M29" s="7">
         <v>45</v>
@@ -4121,13 +4109,13 @@
         <v>32502</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,13 +4130,13 @@
         <v>37113</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H30" s="7">
         <v>57</v>
@@ -4157,13 +4145,13 @@
         <v>42586</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="M30" s="7">
         <v>112</v>
@@ -4172,13 +4160,13 @@
         <v>79698</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,13 +4181,13 @@
         <v>38127</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H31" s="7">
         <v>39</v>
@@ -4208,13 +4196,13 @@
         <v>29670</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M31" s="7">
         <v>95</v>
@@ -4223,13 +4211,13 @@
         <v>67797</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,13 +4232,13 @@
         <v>92930</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H32" s="7">
         <v>126</v>
@@ -4259,13 +4247,13 @@
         <v>97140</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>99</v>
+        <v>228</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M32" s="7">
         <v>262</v>
@@ -4274,13 +4262,13 @@
         <v>190070</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,13 +4336,13 @@
         <v>42793</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>68</v>
+        <v>234</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="H34" s="7">
         <v>59</v>
@@ -4363,13 +4351,13 @@
         <v>40378</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M34" s="7">
         <v>124</v>
@@ -4378,13 +4366,13 @@
         <v>83171</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4399,13 +4387,13 @@
         <v>63915</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="H35" s="7">
         <v>75</v>
@@ -4414,13 +4402,13 @@
         <v>50618</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="M35" s="7">
         <v>171</v>
@@ -4429,13 +4417,13 @@
         <v>114533</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,13 +4438,13 @@
         <v>122121</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="H36" s="7">
         <v>175</v>
@@ -4465,13 +4453,13 @@
         <v>118946</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>250</v>
+        <v>118</v>
       </c>
       <c r="M36" s="7">
         <v>358</v>
@@ -4480,13 +4468,13 @@
         <v>241066</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>168</v>
+        <v>255</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4501,13 +4489,13 @@
         <v>147737</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="H37" s="7">
         <v>192</v>
@@ -4516,13 +4504,13 @@
         <v>126705</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>258</v>
+        <v>173</v>
       </c>
       <c r="M37" s="7">
         <v>412</v>
@@ -4531,13 +4519,13 @@
         <v>274441</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4552,13 +4540,13 @@
         <v>297644</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H38" s="7">
         <v>449</v>
@@ -4567,13 +4555,13 @@
         <v>299949</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M38" s="7">
         <v>899</v>
@@ -4582,13 +4570,13 @@
         <v>597593</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4644,7 +4632,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -4665,7 +4653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A28F6C4-5AFE-4341-8A29-502B7A51751E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71592342-D553-4CEA-B696-1A3EE7715F7F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4682,7 +4670,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4789,13 +4777,13 @@
         <v>2311</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4810,7 +4798,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4819,13 +4807,13 @@
         <v>2311</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4840,13 +4828,13 @@
         <v>2425</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>279</v>
+        <v>211</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -4855,13 +4843,13 @@
         <v>3369</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -4870,13 +4858,13 @@
         <v>5794</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4891,13 +4879,13 @@
         <v>2059</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -4906,13 +4894,13 @@
         <v>896</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -4921,13 +4909,13 @@
         <v>2955</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4942,13 +4930,13 @@
         <v>7356</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -4957,13 +4945,13 @@
         <v>3968</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -4972,13 +4960,13 @@
         <v>11324</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4993,13 +4981,13 @@
         <v>9551</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -5008,13 +4996,13 @@
         <v>13290</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M8" s="7">
         <v>26</v>
@@ -5023,13 +5011,13 @@
         <v>22842</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5097,13 +5085,13 @@
         <v>3315</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -5112,13 +5100,13 @@
         <v>3434</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -5127,13 +5115,13 @@
         <v>6749</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5148,13 +5136,13 @@
         <v>9724</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>322</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>11</v>
@@ -5163,13 +5151,13 @@
         <v>8560</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M11" s="7">
         <v>25</v>
@@ -5178,13 +5166,13 @@
         <v>18284</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5199,13 +5187,13 @@
         <v>19254</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>239</v>
+        <v>331</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H12" s="7">
         <v>23</v>
@@ -5214,13 +5202,13 @@
         <v>17050</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>331</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>333</v>
+        <v>88</v>
       </c>
       <c r="M12" s="7">
         <v>51</v>
@@ -5280,13 +5268,13 @@
         <v>34260</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5301,13 +5289,13 @@
         <v>69287</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="H14" s="7">
         <v>92</v>
@@ -5316,13 +5304,13 @@
         <v>64783</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="M14" s="7">
         <v>189</v>
@@ -5331,13 +5319,13 @@
         <v>134070</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5393,7 +5381,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5405,13 +5393,13 @@
         <v>10683</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -5435,13 +5423,13 @@
         <v>19648</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,10 +5447,10 @@
         <v>361</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -5471,13 +5459,13 @@
         <v>12008</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="M17" s="7">
         <v>48</v>
@@ -5492,7 +5480,7 @@
         <v>367</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>368</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5507,13 +5495,13 @@
         <v>33516</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="H18" s="7">
         <v>44</v>
@@ -5522,13 +5510,13 @@
         <v>29582</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="M18" s="7">
         <v>93</v>
@@ -5537,13 +5525,13 @@
         <v>63098</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5558,13 +5546,13 @@
         <v>25216</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="H19" s="7">
         <v>40</v>
@@ -5573,13 +5561,13 @@
         <v>25927</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M19" s="7">
         <v>77</v>
@@ -5588,10 +5576,10 @@
         <v>51142</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>384</v>
@@ -5701,7 +5689,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5734,7 +5722,7 @@
         <v>398</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>147</v>
+        <v>399</v>
       </c>
       <c r="M22" s="7">
         <v>8</v>
@@ -5743,13 +5731,13 @@
         <v>4920</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5764,13 +5752,13 @@
         <v>7018</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H23" s="7">
         <v>15</v>
@@ -5779,10 +5767,10 @@
         <v>8860</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>406</v>
+        <v>359</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>407</v>
@@ -5794,13 +5782,13 @@
         <v>15877</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>56</v>
+        <v>408</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>200</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5815,13 +5803,13 @@
         <v>26266</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>258</v>
+        <v>412</v>
       </c>
       <c r="H24" s="7">
         <v>33</v>
@@ -5830,13 +5818,13 @@
         <v>21740</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="M24" s="7">
         <v>74</v>
@@ -5845,13 +5833,13 @@
         <v>48006</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5866,13 +5854,13 @@
         <v>33049</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H25" s="7">
         <v>32</v>
@@ -5881,10 +5869,10 @@
         <v>20561</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>421</v>
+        <v>60</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>422</v>
@@ -6009,7 +5997,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6021,7 +6009,7 @@
         <v>5940</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>435</v>
@@ -6057,7 +6045,7 @@
         <v>440</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>441</v>
+        <v>409</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6072,13 +6060,13 @@
         <v>10385</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>444</v>
+        <v>112</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
@@ -6087,13 +6075,13 @@
         <v>12345</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="M29" s="7">
         <v>32</v>
@@ -6102,13 +6090,13 @@
         <v>22730</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>448</v>
+        <v>284</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>449</v>
+        <v>355</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6123,13 +6111,13 @@
         <v>33671</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="H30" s="7">
         <v>46</v>
@@ -6138,13 +6126,13 @@
         <v>35018</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="M30" s="7">
         <v>93</v>
@@ -6153,13 +6141,13 @@
         <v>68689</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6174,13 +6162,13 @@
         <v>29114</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>28</v>
+        <v>455</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>218</v>
+        <v>456</v>
       </c>
       <c r="H31" s="7">
         <v>49</v>
@@ -6189,13 +6177,13 @@
         <v>38152</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="M31" s="7">
         <v>91</v>
@@ -6204,13 +6192,13 @@
         <v>67266</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>463</v>
+        <v>131</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6225,13 +6213,13 @@
         <v>113307</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="H32" s="7">
         <v>133</v>
@@ -6240,13 +6228,13 @@
         <v>102314</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="M32" s="7">
         <v>282</v>
@@ -6255,13 +6243,13 @@
         <v>215621</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6329,13 +6317,13 @@
         <v>25394</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>159</v>
+        <v>471</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H34" s="7">
         <v>24</v>
@@ -6344,13 +6332,13 @@
         <v>15844</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="M34" s="7">
         <v>60</v>
@@ -6359,13 +6347,13 @@
         <v>41238</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6380,13 +6368,13 @@
         <v>49993</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>152</v>
+        <v>436</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="H35" s="7">
         <v>65</v>
@@ -6395,13 +6383,13 @@
         <v>45141</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="M35" s="7">
         <v>139</v>
@@ -6410,13 +6398,13 @@
         <v>95134</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>488</v>
+        <v>71</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6431,13 +6419,13 @@
         <v>114766</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>179</v>
+        <v>488</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="H36" s="7">
         <v>147</v>
@@ -6446,13 +6434,13 @@
         <v>104286</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>493</v>
+        <v>384</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="M36" s="7">
         <v>314</v>
@@ -6461,13 +6449,13 @@
         <v>219052</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>497</v>
+        <v>451</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6482,13 +6470,13 @@
         <v>111785</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>363</v>
+        <v>494</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="H37" s="7">
         <v>150</v>
@@ -6497,13 +6485,13 @@
         <v>105816</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="M37" s="7">
         <v>312</v>
@@ -6512,13 +6500,13 @@
         <v>217601</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6533,13 +6521,13 @@
         <v>388603</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="H38" s="7">
         <v>559</v>
@@ -6548,13 +6536,13 @@
         <v>384667</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>180</v>
+        <v>505</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="M38" s="7">
         <v>1106</v>
@@ -6563,13 +6551,13 @@
         <v>773269</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6625,7 +6613,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -6646,7 +6634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809C09DF-075A-405E-AF00-67A145B50259}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13FFEA91-226F-4BB8-A6A2-17EE18BAE60B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6663,7 +6651,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6770,13 +6758,13 @@
         <v>3188</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6791,7 +6779,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -6800,13 +6788,13 @@
         <v>3188</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6821,13 +6809,13 @@
         <v>1778</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -6836,13 +6824,13 @@
         <v>2680</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>524</v>
+        <v>117</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -6851,13 +6839,13 @@
         <v>4458</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6872,13 +6860,13 @@
         <v>6677</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>531</v>
+        <v>494</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -6887,13 +6875,13 @@
         <v>6285</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -6902,13 +6890,13 @@
         <v>12962</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6923,13 +6911,13 @@
         <v>5249</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -6938,13 +6926,13 @@
         <v>5256</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -6953,13 +6941,13 @@
         <v>10504</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6974,13 +6962,13 @@
         <v>5831</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>542</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -6989,13 +6977,13 @@
         <v>7263</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="M8" s="7">
         <v>15</v>
@@ -7004,13 +6992,13 @@
         <v>13093</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7078,13 +7066,13 @@
         <v>3180</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>556</v>
+        <v>520</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>558</v>
+        <v>315</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -7093,13 +7081,13 @@
         <v>2686</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -7108,13 +7096,13 @@
         <v>5866</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7129,13 +7117,13 @@
         <v>4682</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
@@ -7144,13 +7132,13 @@
         <v>6481</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>569</v>
+        <v>316</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>570</v>
+        <v>161</v>
       </c>
       <c r="M11" s="7">
         <v>16</v>
@@ -7159,13 +7147,13 @@
         <v>11163</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>571</v>
+        <v>402</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7180,13 +7168,13 @@
         <v>13348</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="H12" s="7">
         <v>23</v>
@@ -7195,13 +7183,13 @@
         <v>15301</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>244</v>
+        <v>70</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="M12" s="7">
         <v>41</v>
@@ -7210,13 +7198,13 @@
         <v>28649</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>322</v>
+        <v>57</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7231,13 +7219,13 @@
         <v>25570</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -7246,13 +7234,13 @@
         <v>25270</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>583</v>
+        <v>260</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="M13" s="7">
         <v>72</v>
@@ -7261,13 +7249,13 @@
         <v>50840</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7282,13 +7270,13 @@
         <v>68628</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="H14" s="7">
         <v>76</v>
@@ -7297,13 +7285,13 @@
         <v>53296</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="M14" s="7">
         <v>168</v>
@@ -7312,13 +7300,13 @@
         <v>121924</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7374,7 +7362,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7389,10 +7377,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -7401,13 +7389,13 @@
         <v>3637</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>365</v>
+        <v>590</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -7416,13 +7404,13 @@
         <v>11603</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7437,13 +7425,13 @@
         <v>13624</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>237</v>
+        <v>595</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -7452,13 +7440,13 @@
         <v>9102</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>156</v>
+        <v>596</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>605</v>
+        <v>520</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
@@ -7467,13 +7455,13 @@
         <v>22726</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>565</v>
+        <v>599</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7488,13 +7476,13 @@
         <v>30550</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="H18" s="7">
         <v>50</v>
@@ -7503,13 +7491,13 @@
         <v>32394</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>612</v>
+        <v>38</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="M18" s="7">
         <v>95</v>
@@ -7518,13 +7506,13 @@
         <v>62944</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7539,13 +7527,13 @@
         <v>37289</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="H19" s="7">
         <v>74</v>
@@ -7554,13 +7542,13 @@
         <v>46339</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>79</v>
+        <v>613</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="M19" s="7">
         <v>128</v>
@@ -7569,13 +7557,13 @@
         <v>83628</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>624</v>
+        <v>381</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7590,13 +7578,13 @@
         <v>119874</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="H20" s="7">
         <v>165</v>
@@ -7605,13 +7593,13 @@
         <v>101964</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>629</v>
+        <v>502</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="M20" s="7">
         <v>344</v>
@@ -7620,13 +7608,13 @@
         <v>221837</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7682,7 +7670,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7694,13 +7682,13 @@
         <v>5421</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>635</v>
+        <v>399</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -7712,10 +7700,10 @@
         <v>397</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -7724,13 +7712,13 @@
         <v>7247</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>397</v>
+        <v>630</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7745,13 +7733,13 @@
         <v>7427</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>449</v>
+        <v>633</v>
       </c>
       <c r="H23" s="7">
         <v>21</v>
@@ -7760,13 +7748,13 @@
         <v>12764</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>325</v>
+        <v>446</v>
       </c>
       <c r="M23" s="7">
         <v>32</v>
@@ -7775,13 +7763,13 @@
         <v>20192</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>356</v>
+        <v>637</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7796,13 +7784,13 @@
         <v>22522</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>648</v>
+        <v>361</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="H24" s="7">
         <v>45</v>
@@ -7811,13 +7799,13 @@
         <v>28848</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="M24" s="7">
         <v>77</v>
@@ -7826,13 +7814,13 @@
         <v>51370</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7847,13 +7835,13 @@
         <v>37900</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="H25" s="7">
         <v>42</v>
@@ -7862,13 +7850,13 @@
         <v>25341</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>659</v>
+        <v>569</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="M25" s="7">
         <v>97</v>
@@ -7877,13 +7865,13 @@
         <v>63241</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7898,13 +7886,13 @@
         <v>85050</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>388</v>
+        <v>657</v>
       </c>
       <c r="H26" s="7">
         <v>129</v>
@@ -7913,13 +7901,13 @@
         <v>76975</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>667</v>
+        <v>351</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="M26" s="7">
         <v>257</v>
@@ -7928,13 +7916,13 @@
         <v>162025</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7990,7 +7978,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8002,13 +7990,13 @@
         <v>5545</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -8017,13 +8005,13 @@
         <v>3786</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>156</v>
+        <v>284</v>
       </c>
       <c r="M28" s="7">
         <v>13</v>
@@ -8032,13 +8020,13 @@
         <v>9331</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8053,13 +8041,13 @@
         <v>15513</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
@@ -8068,13 +8056,13 @@
         <v>7119</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="M29" s="7">
         <v>32</v>
@@ -8083,13 +8071,13 @@
         <v>22633</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8104,13 +8092,13 @@
         <v>26802</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="H30" s="7">
         <v>27</v>
@@ -8119,13 +8107,13 @@
         <v>20633</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>692</v>
+        <v>358</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="M30" s="7">
         <v>64</v>
@@ -8134,13 +8122,13 @@
         <v>47435</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8155,13 +8143,13 @@
         <v>46147</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>523</v>
+        <v>687</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="H31" s="7">
         <v>59</v>
@@ -8170,13 +8158,13 @@
         <v>44843</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="M31" s="7">
         <v>123</v>
@@ -8185,13 +8173,13 @@
         <v>90990</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8206,13 +8194,13 @@
         <v>95919</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="H32" s="7">
         <v>158</v>
@@ -8221,13 +8209,13 @@
         <v>114730</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="M32" s="7">
         <v>294</v>
@@ -8236,13 +8224,13 @@
         <v>210649</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>187</v>
+        <v>703</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8310,13 +8298,13 @@
         <v>25300</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>359</v>
+        <v>707</v>
       </c>
       <c r="H34" s="7">
         <v>18</v>
@@ -8325,13 +8313,13 @@
         <v>11935</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="M34" s="7">
         <v>54</v>
@@ -8340,13 +8328,13 @@
         <v>37235</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>556</v>
+        <v>520</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8361,13 +8349,13 @@
         <v>43025</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>721</v>
+        <v>200</v>
       </c>
       <c r="H35" s="7">
         <v>59</v>
@@ -8376,13 +8364,13 @@
         <v>38146</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="M35" s="7">
         <v>120</v>
@@ -8391,13 +8379,13 @@
         <v>81172</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>726</v>
+        <v>234</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>488</v>
+        <v>718</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8412,13 +8400,13 @@
         <v>99900</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="H36" s="7">
         <v>151</v>
@@ -8427,13 +8415,13 @@
         <v>103461</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>731</v>
+        <v>540</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="M36" s="7">
         <v>291</v>
@@ -8442,13 +8430,13 @@
         <v>203360</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>735</v>
+        <v>419</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8463,13 +8451,13 @@
         <v>152155</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>614</v>
+        <v>179</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>218</v>
+        <v>726</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>583</v>
+        <v>536</v>
       </c>
       <c r="H37" s="7">
         <v>217</v>
@@ -8478,13 +8466,13 @@
         <v>147049</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>650</v>
+        <v>728</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>462</v>
+        <v>729</v>
       </c>
       <c r="M37" s="7">
         <v>431</v>
@@ -8493,13 +8481,13 @@
         <v>299204</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8514,13 +8502,13 @@
         <v>375301</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>224</v>
+        <v>732</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="H38" s="7">
         <v>537</v>
@@ -8529,13 +8517,13 @@
         <v>354229</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>386</v>
+        <v>736</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="M38" s="7">
         <v>1078</v>
@@ -8544,13 +8532,13 @@
         <v>729529</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>592</v>
+        <v>739</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8606,7 +8594,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
